--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Steam\steamapps\common\Elin\Package\Mod_CustomWhateverLoader\LangMod\CN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F1C06E-CADB-454D-9853-E9575361FAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850664E-DF01-452B-8C6E-7FE105EBE840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,130 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为音频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成了默认元数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法加载音频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0}
-{1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>解析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重定向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0}-&gt;{1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_relocate_drama</t>
   </si>
   <si>
@@ -273,51 +149,6 @@
   </si>
   <si>
     <t>preloaded dialog &gt; {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预加载对话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重定向情景</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; {0}:{1}
-&gt; {2}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -330,22 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>重定向书本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; {0}:{1}
-&gt; {2}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_preload_chara_talk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,28 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预加载人物对话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_preload_chara_tone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,94 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预加载人物语气</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预加载神对话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预加载称号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预加载姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>preloaded name &gt; {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,38 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法合并神对话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0}
-{1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_execution_analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,75 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CWL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">延长了 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>{0:0.##}ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 加载时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{0} {1,5}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>, {3:0.##}ms</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0} {1,5} call{2}, {3:0.##}ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,50 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作簿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>: {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内部错误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>: {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导入完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,53 +273,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>无法导入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>importing {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>导入表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -802,27 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>跳过表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skipping {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,52 +358,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>添加冒险者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">:{0} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color rgb="FF89CA78"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>failed to add adventurer {0},  cannot be generated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法添加冒险者:{0},  人物无法生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -919,14 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加装备:{0},  {1} 至 {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加物品:{0},  x{1} 至 {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作表升级已取消, 已有此版本的升级表: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,43 +423,6 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> {0, 2}: {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跳过冒险者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">{0},  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人物已存在</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1533,6 +940,823 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_rel_missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to relocate a missing file {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_rel_fallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using fallback {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用备选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {0}:{1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>无法重定向缺失的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {0}:{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法添加冒险者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:{0},  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人物无法生成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize_quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to load quest meta: {0}, it may be missing from current save
+CWL caught the exception and kept the game going
+if this is causing issues,  please check for outdated mods or disable {1} in the config file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳过冒险者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{0},  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人物已存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法从当前游戏中创建任务 元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或许它已被移除或修改
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>CWL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捕获了异常并继续了游戏
+如果造成了问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请检查失效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>Mod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或在配置文件中禁用选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加装备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: {0},  {1} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加物品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: {0},  x{1} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加冒险者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法合并神对话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0}
+{1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法加载音频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0}
+{1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>无法导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重定向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0}-&gt;{1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{0} {1,5} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>, {3:0.##}ms</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CWL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">延长了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0:0.##}ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 加载时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>导入表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>跳过表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为音频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成了默认元数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作簿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预加载称号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预加载人物对话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预加载人物语气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预加载对话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预加载神对话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预加载姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; {0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重定向书本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; {0}:{1}
+&gt; {2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重定向剧情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; {0}:{1}
+&gt; {2}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1541,7 +1765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,13 +1789,6 @@
     <font>
       <sz val="15.8"/>
       <color rgb="FF89CA78"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15.8"/>
-      <color rgb="FF89CA78"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1588,12 +1805,6 @@
       <name val="Cascadia Code"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15.8"/>
-      <color rgb="FF89CA78"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="15.8"/>
@@ -1654,6 +1865,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1680,26 +1908,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1982,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2036,10 +2264,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2051,7 +2279,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2060,34 +2288,34 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2099,18 +2327,18 @@
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2122,7 +2350,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2134,7 +2362,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2143,10 +2371,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2155,10 +2383,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>107</v>
+        <v>65</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2167,46 +2395,46 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>108</v>
+        <v>66</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2215,10 +2443,10 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="5" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2227,32 +2455,32 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2261,10 +2489,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2273,10 +2501,10 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2285,130 +2513,130 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>37</v>
+        <v>89</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2417,10 +2645,10 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="93" x14ac:dyDescent="0.2">
@@ -2429,10 +2657,10 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2444,7 +2672,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2453,91 +2681,124 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" ht="209.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32A71CC-84E0-438A-81FC-EF2441F4524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3AD686-615E-41FC-9C6E-04E34E601E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1078,63 +1078,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">新增材质颜色 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">{0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> {1}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>替</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> {2}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>无法添加材质颜色</t>
     </r>
     <r>
@@ -1159,6 +1102,63 @@
   </si>
   <si>
     <t>cwl_log_post_cleanup_quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新增材质颜色 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {1}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {2}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2178,7 +2178,7 @@
         <v>144</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2190,19 +2190,19 @@
         <v>146</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3AD686-615E-41FC-9C6E-04E34E601E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0386ED04-B1C4-414E-AE77-94CB8EF6A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1158,6 +1158,83 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> {2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_decltype_missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to query decltype from mod: {0} -&gt; {1}
+it might've failed to load or is missing (transitive) dependencies
+this is not an exception from CWL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法查询MOD声明类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {0} -&gt; {1}  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或许它未能加载或缺少（传递）依赖项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">这并不是一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CWL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异常</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1166,7 +1243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,6 +1324,12 @@
     <font>
       <sz val="15.8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1577,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2205,6 +2288,18 @@
         <v>149</v>
       </c>
     </row>
+    <row r="53" spans="1:4" ht="93" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D39">
     <sortCondition ref="A4:A39"/>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0386ED04-B1C4-414E-AE77-94CB8EF6A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C5748-FB7C-426C-9006-57857A5F9136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1235,6 +1235,100 @@
         <charset val="134"/>
       </rPr>
       <t>异常</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_custom_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualified custom trait id: {0}, type: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_qualify_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法限定自定义特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已加载自定义特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限定类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {1}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1660,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2300,6 +2394,30 @@
         <v>154</v>
       </c>
     </row>
+    <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D39">
     <sortCondition ref="A4:A39"/>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C5748-FB7C-426C-9006-57857A5F9136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA2E1E-8A83-4DD5-982F-BBC52F78C4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1171,6 +1171,100 @@
 this is not an exception from CWL</t>
   </si>
   <si>
+    <t>cwl_log_custom_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualified custom trait id: {0}, type: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_qualify_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法限定自定义特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已加载自定义特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限定类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="15.8"/>
@@ -1187,8 +1281,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">: {0} -&gt; {1}  
-</t>
+      <t xml:space="preserve">: {0}, </t>
     </r>
     <r>
       <rPr>
@@ -1234,45 +1327,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>异常</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_custom_trait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualified custom trait id: {0}, type: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_qualify_trait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法限定自定义特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
+      <t>异常并且可以忽略</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one of the {0} {1} processors failed, the exception has been ignored
+{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_processor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="15.8"/>
@@ -1280,55 +1348,53 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>卡片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已加载自定义特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>限定类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: {1}</t>
+      <t xml:space="preserve">一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{0} {1} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已忽略异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+{2}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1754,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2391,31 +2457,43 @@
         <v>153</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>159</v>
+    </row>
+    <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA2E1E-8A83-4DD5-982F-BBC52F78C4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA48D5-4274-49D8-9382-FF6B4AA58D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1395,6 +1395,52 @@
       </rPr>
       <t xml:space="preserve">
 {2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_ele_gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto gained ability id: {0} on {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">已添加能力: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {1}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1820,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2485,7 +2531,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B56" s="10"/>
@@ -2494,6 +2540,18 @@
       </c>
       <c r="D56" s="10" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA48D5-4274-49D8-9382-FF6B4AA58D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76AA34-B129-4C79-8B99-F8A8428B1C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,10 +352,6 @@
   <si>
     <t>failed to merge god_talk,  {0}
 {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added adventurer {0} to {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1442,6 +1438,70 @@
       </rPr>
       <t xml:space="preserve"> {1}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_empty_default</t>
+  </si>
+  <si>
+    <t>sheet is missing default entries (3rd row) and might be incompatible</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作表缺失对应缺省值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或许不兼容此版本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added adventurer {0} to {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1866,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1924,7 +1984,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -1936,7 +1996,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -1948,7 +2008,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -1960,7 +2020,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -1972,7 +2032,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -1984,7 +2044,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -1995,7 +2055,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2007,7 +2067,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2019,7 +2079,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2028,10 +2088,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2043,7 +2103,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2055,7 +2115,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2079,7 +2139,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2091,7 +2151,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2103,7 +2163,7 @@
         <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
@@ -2115,7 +2175,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2126,7 +2186,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2137,7 +2197,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2146,10 +2206,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2158,10 +2218,10 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2170,10 +2230,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2185,7 +2245,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2209,7 +2269,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2221,7 +2281,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2233,7 +2293,7 @@
         <v>38</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2245,7 +2305,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2257,7 +2317,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2269,7 +2329,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2281,7 +2341,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2290,10 +2350,10 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
@@ -2305,7 +2365,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="93" x14ac:dyDescent="0.3">
@@ -2317,7 +2377,7 @@
         <v>68</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
@@ -2329,7 +2389,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2338,10 +2398,10 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2353,7 +2413,7 @@
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2365,7 +2425,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2374,10 +2434,10 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2389,169 +2449,180 @@
         <v>77</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="116.25" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="8" customFormat="1" ht="209.25" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="116.25" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="93" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>166</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76AA34-B129-4C79-8B99-F8A8428B1C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F02D47D-BB4E-45FF-9481-9AC1F20D18DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,264 +408,975 @@
   </si>
   <si>
     <t>cwl_ele_safety_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_rel_missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to relocate a missing file {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_rel_fallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using fallback {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize_quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;缺失&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析 {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重定向 {0}-&gt;{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加物品: {0},  x{1} 至 {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作簿: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">无法重定向缺失的文件 {0}:{1}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许指向 {0, 2}: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法添加冒险者:{0},  人物无法生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部错误: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法合并神对话 &gt; {0}
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法加载音频 {0}
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法导入 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加冒险者: {0} 至 {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加装备: {0},  {1} 至 {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} {1,5} 次调用, {3:0.##}ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWL 延长了 {0:0.##}ms 加载时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入表 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过表 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过冒险者: {0},  人物已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为音频 {0} 生成了默认元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预加载称号 &gt; {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预加载人物对话 &gt; {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预加载人物语气 &gt; {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预加载对话 &gt; {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预加载神对话 &gt; {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预加载姓名 &gt; {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重定向书本 &gt; {0}:{1}
+&gt; {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重定向剧情 &gt; {0}:{1}
+&gt; {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作表首行乱序, CWL已使用列名代替列序导入
+如果造成了问题, 请更新工作表或在配置文件中禁用选项 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法为信仰 {0} 加载肖像
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法为 {0} 创建贴图
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;错误元素:{0}:{1}:{2}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用备选 {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to load quest: {0}, meta: {0}, it may be missing from current game
+CWL caught the exception and kept the game going
+if this is causing issues,  please check for outdated mods or disable {1} in the config file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法从当前游戏中创建任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: {1}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或许它已被修改或移除
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>CWL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捕获了异常并继续了游戏
+如果造成了问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请检查失效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>Mod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或在配置文件中禁用选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualified custom element: {0}, type: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to add thing: {0} to {1},  cannot be generated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法添加物品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {1},  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物品无法生成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法限定自定义元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已加载自定义元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限定类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_mat_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added material color {0}, main {1}, alt {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_mat_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to add material color {0}, {1}
+{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法添加材质颜色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {0}, {1}
+{2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed invalid quest id: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已移除无效任务: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_post_cleanup_quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新增材质颜色 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {1}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_decltype_missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to query decltype from mod: {0} -&gt; {1}
+it might've failed to load or is missing (transitive) dependencies
+this is not an exception from CWL</t>
+  </si>
+  <si>
+    <t>cwl_log_custom_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualified custom trait id: {0}, type: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_qualify_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法限定自定义特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已加载自定义特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限定类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法查询MOD声明类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或许它未能加载或缺少（传递）依赖项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">这并不是一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CWL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异常并且可以忽略</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one of the {0} {1} processors failed, the exception has been ignored
+{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_processor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{0} {1} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已忽略异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+{2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_ele_gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto gained ability id: {0} on {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">已添加能力: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_empty_default</t>
+  </si>
+  <si>
+    <t>sheet is missing default entries (3rd row) and might be incompatible</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作表缺失对应缺省值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或许不兼容此版本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added adventurer {0} to {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法从当前游戏中创建元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: {0}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">类型: {1}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或许它已被修改或移除
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>CWL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捕获了异常并继续了游戏
+如果造成了问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请检查失效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>Mod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或在配置文件中禁用选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create element: {0}, type: {1}, it may be missing from current save
+CWL caught the exception and kept the game going
+if this is causing issues,  please check for outdated mods or disable {2} in the config file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>This element is missing or modified from your current game. 
 CWL kept the game going by replacing it with a safety cone.
 You should report the relevant information to mod author or CWL.
-If you see this and do not want to bunk your game, you may press Alt + F4 to shutdown Elin without saving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_rel_missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to relocate a missing file {0}:{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_rel_fallback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>using fallback {0}:{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_deserialize_quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;缺失&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析 {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重定向 {0}-&gt;{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加物品: {0},  x{1} 至 {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作簿: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">无法重定向缺失的文件 {0}:{1}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许指向 {0, 2}: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法添加冒险者:{0},  人物无法生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部错误: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法合并神对话 &gt; {0}
-{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法加载音频 {0}
-{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法导入 {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加冒险者: {0} 至 {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加装备: {0},  {1} 至 {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} {1,5} 次调用, {3:0.##}ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CWL 延长了 {0:0.##}ms 加载时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入表 {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过表 {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过冒险者: {0},  人物已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为音频 {0} 生成了默认元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预加载称号 &gt; {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预加载人物对话 &gt; {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预加载人物语气 &gt; {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预加载对话 &gt; {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预加载神对话 &gt; {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预加载姓名 &gt; {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重定向书本 &gt; {0}:{1}
-&gt; {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重定向剧情 &gt; {0}:{1}
-&gt; {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作表首行乱序, CWL已使用列名代替列序导入
-如果造成了问题, 请更新工作表或在配置文件中禁用选项 {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法为信仰 {0} 加载肖像
-{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法为 {0} 创建贴图
-{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;错误元素:{0}:{1}:{2}&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用备选 {0}:{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法从当前游戏中创建元素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">或许它已被修改或移除
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>CWL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>捕获了异常并继续了游戏
-如果造成了问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请检查失效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>Mod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或在配置文件中禁用选项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+Using this element will let CWL purge it from your save.
+You may also keep the safety cone, CWL will restore it when the responsible mod functions again.</t>
   </si>
   <si>
     <r>
@@ -702,7 +1413,7 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">  
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -754,754 +1465,31 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">  
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <sz val="15.8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果您看到此消息并且不想冒险损坏存档，可以按</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>Alt + F4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>Elin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to load quest: {0}, meta: {0}, it may be missing from current game
-CWL caught the exception and kept the game going
-if this is causing issues,  please check for outdated mods or disable {1} in the config file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法从当前游戏中创建任务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: {1}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">或许它已被修改或移除
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>CWL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>捕获了异常并继续了游戏
-如果造成了问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请检查失效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>Mod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或在配置文件中禁用选项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {2}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to create element: {0}, it may be missing from current save
-CWL caught the exception and kept the game going
-if this is causing issues,  please check for outdated mods or disable {1} in the config file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualified custom element: {0}, type: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to add thing: {0} to {1},  cannot be generated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法添加物品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {1},  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物品无法生成</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法限定自定义元素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>: {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已加载自定义元素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>限定类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>: {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_mat_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added material color {0}, main {1}, alt {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_mat_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to add material color {0}, {1}
-{2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法添加材质颜色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> {0}, {1}
-{2}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removed invalid quest id: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已移除无效任务: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_post_cleanup_quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">新增材质颜色 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">{0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> {1}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>副</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> {2}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_decltype_missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to query decltype from mod: {0} -&gt; {1}
-it might've failed to load or is missing (transitive) dependencies
-this is not an exception from CWL</t>
-  </si>
-  <si>
-    <t>cwl_log_custom_trait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualified custom trait id: {0}, type: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_qualify_trait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法限定自定义特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卡片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已加载自定义特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>限定类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法查询MOD声明类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: {0}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或许它未能加载或缺少（传递）依赖项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">这并不是一个 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">CWL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>异常并且可以忽略</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>one of the {0} {1} processors failed, the exception has been ignored
-{2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_processor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">一个 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">{0} {1} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处理失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已忽略异常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-{2}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_ele_gain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto gained ability id: {0} on {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">已添加能力: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">{0} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> {1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_empty_default</t>
-  </si>
-  <si>
-    <t>sheet is missing default entries (3rd row) and might be incompatible</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作表缺失对应缺省值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或许不兼容此版本</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added adventurer {0} to {1}</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用此元素后CWL会将其清理出您的存档。
+您也可以保留此元素，CWL会在相关MOD正常工作后恢复它。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize_ele_final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this is the last time CWL warns about it, the rest will be silently ignored to reduce log spam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是最后一次警告此元素，后续异常将会被静默忽略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,7 +1497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,6 +1587,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1620,7 +1614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1644,6 +1638,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1926,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1984,7 +1981,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -1996,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2008,7 +2005,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2020,7 +2017,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2032,7 +2029,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2044,7 +2041,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2055,7 +2052,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2067,7 +2064,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2079,7 +2076,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2088,10 +2085,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2103,7 +2100,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2115,7 +2112,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2139,7 +2136,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2151,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2186,7 +2183,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2197,7 +2194,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2209,7 +2206,7 @@
         <v>88</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2221,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2245,7 +2242,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2269,7 +2266,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2281,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2293,7 +2290,7 @@
         <v>38</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2305,7 +2302,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2317,7 +2314,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2329,7 +2326,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2341,7 +2338,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2353,7 +2350,7 @@
         <v>85</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
@@ -2377,7 +2374,7 @@
         <v>68</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
@@ -2398,10 +2395,10 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2413,7 +2410,7 @@
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2425,7 +2422,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
@@ -2434,10 +2431,10 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2449,7 +2446,7 @@
         <v>77</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="116.25" x14ac:dyDescent="0.3">
@@ -2457,172 +2454,183 @@
         <v>89</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="8" customFormat="1" ht="279" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="116.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="8" customFormat="1" ht="209.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="116.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>144</v>
+    <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="10"/>
+    <row r="52" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="9"/>
       <c r="C52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="93" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="93" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F02D47D-BB4E-45FF-9481-9AC1F20D18DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF4DAC-328A-4AC3-BB73-83704AAE5136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="176">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1201,12 +1201,6 @@
       <t xml:space="preserve"> {1}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_empty_default</t>
-  </si>
-  <si>
-    <t>sheet is missing default entries (3rd row) and might be incompatible</t>
   </si>
   <si>
     <r>
@@ -1490,6 +1484,52 @@
   </si>
   <si>
     <t>这是最后一次警告此元素，后续异常将会被静默忽略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_empty_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet is missing default entries (3rd row) and might be incompatible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_stock_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to read stock file for merchant id: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法为商人:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加载自定义库存</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1923,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2085,7 +2125,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>110</v>
@@ -2454,21 +2494,21 @@
         <v>89</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -2487,10 +2527,10 @@
         <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
@@ -2622,15 +2662,28 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>164</v>
+    </row>
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FDB40-83DE-43D1-A57B-9F0911A04CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D39E8-9FB0-46D0-BF7E-3BD81A27ED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/ZHTW/cwl_sources.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\CN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\ZHTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D39E8-9FB0-46D0-BF7E-3BD81A27ED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D18DE-D7DA-4686-9622-FBCEFCCC213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="182">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1496,6 +1496,55 @@
       </rPr>
       <t>: {1}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_missing_mods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_missing_mods_yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_missing_mods_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在のセーブから欠落しているMOD：
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当前存档中缺失的模组：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セーブせずに終了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不保存并返回至标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プレイを続ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续游玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1941,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2649,12 +2698,42 @@
       <c r="C59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D41">
